--- a/src/main/resources/config/diagramministries.xlsx
+++ b/src/main/resources/config/diagramministries.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2025" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t xml:space="preserve">ΥΠΟΥΡΓΕΙΑ</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t xml:space="preserve">Αποκεντρωμένη Διοίκηση Μακεδονίας - Θράκης</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ΠΟΣΑ ΣΕ ΕΥΡΩ</t>
   </si>
 </sst>
 </file>
@@ -152,12 +155,13 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -179,18 +183,7 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -205,18 +198,24 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -263,32 +262,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,14 +308,14 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFCE9178"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
@@ -339,10 +330,10 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF9CDCFE"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFB5CEA8"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF637CEF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -350,7 +341,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -381,6 +372,7 @@
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -389,6 +381,7 @@
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2025 (σε εκατομμύρια)</a:t>
             </a:r>
@@ -436,6 +429,7 @@
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
@@ -664,11 +658,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="14859292"/>
-        <c:axId val="33478144"/>
+        <c:axId val="4221458"/>
+        <c:axId val="69471048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="14859292"/>
+        <c:axId val="4221458"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,11 +690,12 @@
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33478144"/>
+        <c:crossAx val="69471048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -708,7 +703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33478144"/>
+        <c:axId val="69471048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,11 +738,12 @@
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14859292"/>
+        <c:crossAx val="4221458"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -777,6 +773,7 @@
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -811,450 +808,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="el-GR" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" lang="el-GR" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2024 (σε δυσεκατομμύρια)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="637cef"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
-              <a:solidFill>
-                <a:srgbClr val="637cef"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos Narrow"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2024'!$A$2:$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>Προεδρία της Δημοκρατίας</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Βουλή των Ελλήνων</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Προεδρία της Κυβέρνησης</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Υπουργεία</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Υπουργείο Εσωτερικών</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Υπουργείο Εξωτερικών</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Υπουργείο Εθνικής Άμυνας</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Υπουργείο Υγείας</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Υπουργείο Δικαιοσύνης</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Υπουργείο Παιδείας, Θρησκευμάτων και Αθλητισμού</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Υπουργείο Πολιτισμού</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Υπουργείο Εθνικής Οικονομίας και Οικονομικών</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Υπουργείο Αγροτικής Ανάπτυξης και Τροφίμων</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Υπουργείο Περιβάλλοντος και Ενέργειας</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Υπουργείο Εργασίας και Κοινωνικής Ασφάλισης</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Υπουργείο Κοινωνικής Συνοχής και Οικογένειας</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Υπουργείο Ανάπτυξης</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Υπουργείο Υποδομών και Μεταφορών</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Υπουργείο Ναυτιλίας και Νησιωτικής Πολιτικής</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Υπουργείο Τουρισμού</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Υπουργείο Ψηφιακής Διακυβέρνησης</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Υπουργείο Μετανάστευσης και Ασύλου</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Υπουργείο Προστασίας του Πολίτη</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Υπουργείο Κλιματικής Κρίσης και Πολιτικής Προστασίας</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Αποκεντρωμένες Διοικήσεις</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Αποκεντρωμένη Διοίκηση Αττικής</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Αποκεντρωμένη Διοίκηση Θεσσαλίας - Στερεάς Ελλάδας</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Αποκεντρωμένη Διοίκηση Ηπείρου - Δυτικής Μακεδονίας</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Αποκεντρωμένη Διοίκηση Πελοποννήσου - Δυτικής Ελλάδας και Ιονίου</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Αποκεντρωμένη Διοίκηση Αιγαίου</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Αποκεντρωμένη Διοίκηση Κρήτης</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Αποκεντρωμένη Διοίκηση Μακεδονίας - Θράκης</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2024'!$B$2:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>4.636</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>160.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43.259</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1107899.683</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3705.487</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>407.892</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6123.388</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6027.031</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>625.464</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6547.63</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>400.113</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1049897.798</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1184.694</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1823.158</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18629.492</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3992.039</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>924.661</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2350.117</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>576.28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>167.787</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>843.765</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>473.304</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2262.973</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>936.61</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>80.292</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11.629</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10.659</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.796</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>15.415</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.211</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.719</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>19.863</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="22932970"/>
-        <c:axId val="50355658"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="22932970"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="50355658"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50355658"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="12600">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="22932970"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
               <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
@@ -1263,7 +816,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2023
+              <a:t>ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2024
 σε εκατομμύρια</a:t>
             </a:r>
           </a:p>
@@ -1287,11 +840,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2023'!$B$1</c:f>
+              <c:f>'ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2024'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>ΠΟΣΑ ΣΕ ΕΥΡΩ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1337,9 +890,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2023'!$A$2:$A$32</c:f>
+              <c:f>'ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2024'!$A$2:$A$33</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>Προεδρία της Δημοκρατίας</c:v>
                 </c:pt>
@@ -1386,51 +939,54 @@
                   <c:v>Υπουργείο Εργασίας και Κοινωνικής Ασφάλισης</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Υπουργείο Κοινωνικής Συνοχής και Οικογένειας</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Υπουργείο Ανάπτυξης</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Υπουργείο Υποδομών και Μεταφορών</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Υπουργείο Ναυτιλίας και Νησιωτικής Πολιτικής</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Υπουργείο Τουρισμού</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Υπουργείο Ψηφιακής Διακυβέρνησης</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Υπουργείο Μετανάστευσης και Ασύλου</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Υπουργείο Προστασίας του Πολίτη</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Υπουργείο Κλιματικής Κρίσης και Πολιτικής Προστασίας</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Αποκεντρωμένες Διοικήσεις</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Αποκεντρωμένη Διοίκηση Αττικής</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>Αποκεντρωμένη Διοίκηση Θεσσαλίας - Στερεάς Ελλάδας</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>Αποκεντρωμένη Διοίκηση Ηπείρου - Δυτικής Μακεδονίας</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>Αποκεντρωμένη Διοίκηση Πελοποννήσου - Δυτικής Ελλάδας και Ιονίου</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>Αποκεντρωμένη Διοίκηση Αιγαίου</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>Αποκεντρωμένη Διοίκηση Κρήτης</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>Αποκεντρωμένη Διοίκηση Μακεδονίας - Θράκης</c:v>
                 </c:pt>
               </c:strCache>
@@ -1438,102 +994,105 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2023'!$B$2:$B$32</c:f>
+              <c:f>'ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2024'!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>4.263</c:v>
+                  <c:v>4.636</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149.9</c:v>
+                  <c:v>160.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.679</c:v>
+                  <c:v>43.259</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>806614.266</c:v>
+                  <c:v>1107899.683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3548.748</c:v>
+                  <c:v>3705.487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>282.175</c:v>
+                  <c:v>407.892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5707.8</c:v>
+                  <c:v>6123.388</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5202.388</c:v>
+                  <c:v>6027.031</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>566.374</c:v>
+                  <c:v>625.464</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6080.504</c:v>
+                  <c:v>6548.63</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>458.563</c:v>
+                  <c:v>401.113</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>748592.323</c:v>
+                  <c:v>1049898.798</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1547.98</c:v>
+                  <c:v>1185.694</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1707.333</c:v>
+                  <c:v>1824.158</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22492.686</c:v>
+                  <c:v>18630.492</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3295.349</c:v>
+                  <c:v>3992.039</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2346.259</c:v>
+                  <c:v>924.661</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>498.453</c:v>
+                  <c:v>2350.117</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>239.36</c:v>
+                  <c:v>576.28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>972.937</c:v>
+                  <c:v>167.787</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>418.728</c:v>
+                  <c:v>843.765</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2012.833</c:v>
+                  <c:v>473.304</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>643.473</c:v>
+                  <c:v>2262.973</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>69.085</c:v>
+                  <c:v>936.61</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.61</c:v>
+                  <c:v>80.292</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.723</c:v>
+                  <c:v>11.629</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.468</c:v>
+                  <c:v>10.659</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.467</c:v>
+                  <c:v>9.796</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.631</c:v>
+                  <c:v>15.415</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.068</c:v>
+                  <c:v>6.211</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17.118</c:v>
+                  <c:v>6.719</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1548,11 +1107,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="16593007"/>
-        <c:axId val="82166021"/>
+        <c:axId val="32697393"/>
+        <c:axId val="36006871"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="16593007"/>
+        <c:axId val="32697393"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1139,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82166021"/>
+        <c:crossAx val="36006871"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1588,7 +1147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82166021"/>
+        <c:axId val="36006871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,7 +1184,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16593007"/>
+        <c:crossAx val="32697393"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1673,6 +1232,461 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:rPr>
+              <a:t>ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2023
+σε εκατομμύρια</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2023'!$B$1:$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2023'!$A$2:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Προεδρία της Δημοκρατίας</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Βουλή των Ελλήνων</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Προεδρία της Κυβέρνησης</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Υπουργεία</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Υπουργείο Εσωτερικών</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Υπουργείο Εξωτερικών</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Υπουργείο Εθνικής Άμυνας</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Υπουργείο Υγείας</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Υπουργείο Δικαιοσύνης</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Υπουργείο Παιδείας, Θρησκευμάτων και Αθλητισμού</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Υπουργείο Πολιτισμού</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Υπουργείο Εθνικής Οικονομίας και Οικονομικών</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Υπουργείο Αγροτικής Ανάπτυξης και Τροφίμων</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Υπουργείο Περιβάλλοντος και Ενέργειας</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Υπουργείο Εργασίας και Κοινωνικής Ασφάλισης</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Υπουργείο Ανάπτυξης</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Υπουργείο Υποδομών και Μεταφορών</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Υπουργείο Ναυτιλίας και Νησιωτικής Πολιτικής</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Υπουργείο Τουρισμού</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Υπουργείο Ψηφιακής Διακυβέρνησης</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Υπουργείο Μετανάστευσης και Ασύλου</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Υπουργείο Προστασίας του Πολίτη</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Υπουργείο Κλιματικής Κρίσης και Πολιτικής Προστασίας</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Αποκεντρωμένες Διοικήσεις</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Αποκεντρωμένη Διοίκηση Αττικής</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Αποκεντρωμένη Διοίκηση Θεσσαλίας - Στερεάς Ελλάδας</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Αποκεντρωμένη Διοίκηση Ηπείρου - Δυτικής Μακεδονίας</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Αποκεντρωμένη Διοίκηση Πελοποννήσου - Δυτικής Ελλάδας και Ιονίου</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Αποκεντρωμένη Διοίκηση Αιγαίου</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Αποκεντρωμένη Διοίκηση Κρήτης</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Αποκεντρωμένη Διοίκηση Μακεδονίας - Θράκης</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ΠΡΟΫΠΟΛΟΓΙΣΜΟΣ 2023'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>4.263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>806614.266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3548.748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>282.175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5707.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5202.388</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>566.374</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6080.504</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>458.563</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>748592.323</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1547.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1707.333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22492.686</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3295.349</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2346.259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>498.453</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>239.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>972.937</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>418.728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2012.833</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>643.473</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69.085</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.61</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.723</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.468</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.467</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.631</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.068</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="74947901"/>
+        <c:axId val="8845871"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74947901"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8845871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8845871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74947901"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1684,9 +1698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171000</xdr:colOff>
+      <xdr:colOff>170640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1695,7 +1709,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="6771960" cy="3794760"/>
+        <a:ext cx="6771600" cy="3794400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1713,24 +1727,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>52920</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:colOff>88920</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>405000</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>536400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Γράφημα 12"/>
+        <xdr:cNvPr id="1" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="52920" y="544680"/>
-        <a:ext cx="10980000" cy="7408440"/>
+        <a:off x="88920" y="3534480"/>
+        <a:ext cx="11392920" cy="5939280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1754,9 +1768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>310320</xdr:colOff>
+      <xdr:colOff>309960</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1765,7 +1779,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="45720"/>
-        <a:ext cx="11032920" cy="6205680"/>
+        <a:ext cx="11032560" cy="6205320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1897,76 +1911,76 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>2025</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>4638</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>171950</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>160.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>41689</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>43.259</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>1307609637</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>1107899.683</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>3830276</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>3705.487</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>420237</v>
       </c>
       <c r="C7" s="4" t="n">
@@ -1974,10 +1988,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="2" t="n">
         <v>6130</v>
       </c>
       <c r="C8" s="4" t="n">
@@ -1985,10 +1999,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>7177424</v>
       </c>
       <c r="C9" s="4" t="n">
@@ -1996,10 +2010,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>650803</v>
       </c>
       <c r="C10" s="4" t="n">
@@ -2007,32 +2021,32 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="2" t="n">
         <v>6606</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>575419</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>1246518464</v>
       </c>
       <c r="C13" s="4" t="n">
@@ -2040,7 +2054,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="n">
@@ -2051,7 +2065,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3" t="n">
@@ -2062,7 +2076,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3" t="n">
@@ -2073,18 +2087,18 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>3989553</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>3992.039</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3" t="n">
@@ -2095,10 +2109,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="4" t="n">
@@ -2106,21 +2120,21 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>651864</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="3" t="n">
         <v>189293</v>
       </c>
       <c r="C21" s="4" t="n">
@@ -2128,7 +2142,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="3" t="n">
@@ -2139,10 +2153,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="4" t="n">
@@ -2150,10 +2164,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="4" t="n">
@@ -2161,21 +2175,21 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>1221116</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="2" t="n">
         <v>79592</v>
       </c>
       <c r="C26" s="4" t="n">
@@ -2183,7 +2197,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="3" t="n">
@@ -2194,7 +2208,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3" t="n">
@@ -2205,7 +2219,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="3" t="n">
@@ -2216,7 +2230,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="3" t="n">
@@ -2227,7 +2241,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="3" t="n">
@@ -2238,7 +2252,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="3" t="n">
@@ -2249,7 +2263,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="3" t="n">
@@ -2278,284 +2292,287 @@
   </sheetPr>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="0" t="n">
         <v>4.636</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="0" t="n">
         <v>160.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="0" t="n">
         <v>43.259</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="0" t="n">
         <v>1107899.683</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="0" t="n">
         <v>3705.487</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="0" t="n">
         <v>407.892</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="0" t="n">
         <v>6123.388</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="0" t="n">
         <v>6027.031</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="0" t="n">
         <v>625.464</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>6547.63</v>
+      <c r="B11" s="0" t="n">
+        <v>6548.63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>400.113</v>
+      <c r="B12" s="0" t="n">
+        <v>401.113</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>1049897.798</v>
+      <c r="B13" s="0" t="n">
+        <v>1049898.798</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="n">
-        <v>1184.694</v>
+      <c r="B14" s="0" t="n">
+        <v>1185.694</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>1823.158</v>
+      <c r="B15" s="0" t="n">
+        <v>1824.158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="n">
-        <v>18629.492</v>
+      <c r="B16" s="0" t="n">
+        <v>18630.492</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="0" t="n">
         <v>3992.039</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="0" t="n">
         <v>924.661</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="0" t="n">
         <v>2350.117</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="0" t="n">
         <v>576.28</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="0" t="n">
         <v>167.787</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="0" t="n">
         <v>843.765</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="0" t="n">
         <v>473.304</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="0" t="n">
         <v>2262.973</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="0" t="n">
         <v>936.61</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="0" t="n">
         <v>80.292</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="0" t="n">
         <v>11.629</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="0" t="n">
         <v>10.659</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="0" t="n">
         <v>9.796</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="0" t="n">
         <v>15.415</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="0" t="n">
         <v>6.211</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="0" t="n">
         <v>6.719</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="0" t="n">
         <v>19.863</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2566,271 +2583,275 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="68.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>4.263</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>149.9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>40.679</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>806614.266</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>3548.748</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>282.175</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>5707.8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>5202.388</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>566.374</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>6080.504</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>458.563</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>748592.323</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>1547.98</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>1707.333</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>22492.686</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>3295.349</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>2346.259</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>498.453</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>239.36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>972.937</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>418.728</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>2012.833</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>643.473</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>69.085</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>11.61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>7.723</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>8.468</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>12.467</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>5.631</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>6.068</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>17.118</v>
       </c>
     </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
